--- a/Dataset/Authors/LIV_ANDR_trag.xlsx
+++ b/Dataset/Authors/LIV_ANDR_trag.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1knjo21SeGbZ1-eICJFWxrgYeTavGEZsK\Latin_Compounds_Database\Vetus_Archivum_Oniga\Auctores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1knjo21SeGbZ1-eICJFWxrgYeTavGEZsK\Latin_Compounds_Database\Auctores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B52C351-68EB-4201-A6EF-2337F8F9D0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6054652-374E-4636-B03D-96FC15E35F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{A8030ED1-7E92-41F8-9745-14B31D801B30}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>Livius Andronicus</t>
   </si>
   <si>
-    <t>LIV. ANDR. com.</t>
-  </si>
-  <si>
     <t>Poetry</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>sollemnitus</t>
+  </si>
+  <si>
+    <t>LIV. ANDR. trag.</t>
   </si>
 </sst>
 </file>
@@ -496,19 +496,19 @@
     </row>
     <row r="2" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -518,16 +518,16 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
